--- a/PYTHON/DATA_ANALYSIS/VALUO/data_strukturovana/___ALL/1/cadastre_report_6_2024 (9).xlsx
+++ b/PYTHON/DATA_ANALYSIS/VALUO/data_strukturovana/___ALL/1/cadastre_report_6_2024 (9).xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ad31658eb0d26ad/Dokumenty/PROG/PYTHON/DATA_ANALYSIS/VALUO/data_strukturovana/___ALL/1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_85ADD5D78B1C897C30B37D5FF6CEC02DABF23748" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08DB821F-EA78-4B30-9AE4-D2D510AB18B1}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView minimized="1" xWindow="4224" yWindow="4224" windowWidth="18816" windowHeight="8736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" calcCompleted="0" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="547">
   <si>
     <t>Číslo vkladu</t>
   </si>
@@ -1661,16 +1679,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1697,14 +1711,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1994,19 +2016,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J1" sqref="J1:J176"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="54.44140625" customWidth="1"/>
+    <col min="7" max="7" width="41.77734375" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="11" max="11" width="55.6640625" customWidth="1"/>
+    <col min="12" max="12" width="200.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2056,7 +2083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2106,7 +2133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2156,7 +2183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2206,7 +2233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2256,7 +2283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2306,7 +2333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2356,7 +2383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2385,7 +2412,7 @@
         <v>23</v>
       </c>
       <c r="J8" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
         <v>24</v>
@@ -2406,7 +2433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2435,7 +2462,7 @@
         <v>23</v>
       </c>
       <c r="J9" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
         <v>59</v>
@@ -2456,7 +2483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2485,7 +2512,7 @@
         <v>23</v>
       </c>
       <c r="J10" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
         <v>59</v>
@@ -2506,7 +2533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2535,7 +2562,7 @@
         <v>23</v>
       </c>
       <c r="J11" s="1">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="K11" t="s">
         <v>59</v>
@@ -2556,7 +2583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2606,7 +2633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -2656,7 +2683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -2685,7 +2712,7 @@
         <v>23</v>
       </c>
       <c r="J14" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
         <v>24</v>
@@ -2706,7 +2733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -2756,7 +2783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -2806,7 +2833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -2856,7 +2883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -2885,7 +2912,7 @@
         <v>23</v>
       </c>
       <c r="J18" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="K18" t="s">
         <v>59</v>
@@ -2906,7 +2933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2935,7 +2962,7 @@
         <v>23</v>
       </c>
       <c r="J19" s="1">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="K19" t="s">
         <v>59</v>
@@ -2956,7 +2983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -2985,7 +3012,7 @@
         <v>23</v>
       </c>
       <c r="J20" s="1">
-        <v>72.1</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="K20" t="s">
         <v>24</v>
@@ -3006,7 +3033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -3056,7 +3083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -3106,7 +3133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -3156,7 +3183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -3206,7 +3233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -3235,7 +3262,7 @@
         <v>23</v>
       </c>
       <c r="J25" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s">
         <v>24</v>
@@ -3256,7 +3283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -3306,7 +3333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -3356,7 +3383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -3385,7 +3412,7 @@
         <v>23</v>
       </c>
       <c r="J28" s="1">
-        <v>498.0</v>
+        <v>498</v>
       </c>
       <c r="K28" t="s">
         <v>59</v>
@@ -3406,7 +3433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -3456,7 +3483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -3506,7 +3533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -3535,7 +3562,7 @@
         <v>23</v>
       </c>
       <c r="J31" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K31" t="s">
         <v>59</v>
@@ -3556,7 +3583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -3585,7 +3612,7 @@
         <v>23</v>
       </c>
       <c r="J32" s="1">
-        <v>912.0</v>
+        <v>912</v>
       </c>
       <c r="K32" t="s">
         <v>59</v>
@@ -3606,7 +3633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -3656,7 +3683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -3685,7 +3712,7 @@
         <v>23</v>
       </c>
       <c r="J34" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K34" t="s">
         <v>59</v>
@@ -3706,7 +3733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -3735,7 +3762,7 @@
         <v>23</v>
       </c>
       <c r="J35" s="1">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="K35" t="s">
         <v>59</v>
@@ -3756,7 +3783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -3785,7 +3812,7 @@
         <v>23</v>
       </c>
       <c r="J36" s="1">
-        <v>729.0</v>
+        <v>729</v>
       </c>
       <c r="K36" t="s">
         <v>59</v>
@@ -3806,7 +3833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>154</v>
       </c>
@@ -3856,7 +3883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -3906,7 +3933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>159</v>
       </c>
@@ -3956,7 +3983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -4006,7 +4033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -4056,7 +4083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -4085,7 +4112,7 @@
         <v>23</v>
       </c>
       <c r="J42" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="K42" t="s">
         <v>24</v>
@@ -4106,7 +4133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>172</v>
       </c>
@@ -4135,7 +4162,7 @@
         <v>23</v>
       </c>
       <c r="J43" s="1">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="K43" t="s">
         <v>176</v>
@@ -4156,7 +4183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>172</v>
       </c>
@@ -4185,7 +4212,7 @@
         <v>23</v>
       </c>
       <c r="J44" s="1">
-        <v>729.0</v>
+        <v>729</v>
       </c>
       <c r="K44" t="s">
         <v>59</v>
@@ -4206,7 +4233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -4235,7 +4262,7 @@
         <v>23</v>
       </c>
       <c r="J45" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="K45" t="s">
         <v>59</v>
@@ -4256,7 +4283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -4285,7 +4312,7 @@
         <v>23</v>
       </c>
       <c r="J46" s="1">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="K46" t="s">
         <v>59</v>
@@ -4306,7 +4333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -4356,7 +4383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -4406,7 +4433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -4435,7 +4462,7 @@
         <v>23</v>
       </c>
       <c r="J49" s="1">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="K49" t="s">
         <v>59</v>
@@ -4456,7 +4483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -4506,7 +4533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -4535,7 +4562,7 @@
         <v>23</v>
       </c>
       <c r="J51" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="K51" t="s">
         <v>59</v>
@@ -4556,7 +4583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -4585,7 +4612,7 @@
         <v>23</v>
       </c>
       <c r="J52" s="1">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="K52" t="s">
         <v>59</v>
@@ -4606,7 +4633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -4635,7 +4662,7 @@
         <v>23</v>
       </c>
       <c r="J53" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K53" t="s">
         <v>59</v>
@@ -4656,7 +4683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>194</v>
       </c>
@@ -4685,7 +4712,7 @@
         <v>23</v>
       </c>
       <c r="J54" s="1">
-        <v>729.0</v>
+        <v>729</v>
       </c>
       <c r="K54" t="s">
         <v>59</v>
@@ -4706,7 +4733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>201</v>
       </c>
@@ -4756,7 +4783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -4785,7 +4812,7 @@
         <v>23</v>
       </c>
       <c r="J56" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="K56" t="s">
         <v>24</v>
@@ -4806,7 +4833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>209</v>
       </c>
@@ -4856,7 +4883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>212</v>
       </c>
@@ -4906,7 +4933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>215</v>
       </c>
@@ -4935,7 +4962,7 @@
         <v>23</v>
       </c>
       <c r="J59" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K59" t="s">
         <v>24</v>
@@ -4956,7 +4983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>220</v>
       </c>
@@ -5006,7 +5033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>225</v>
       </c>
@@ -5056,7 +5083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>230</v>
       </c>
@@ -5106,7 +5133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>234</v>
       </c>
@@ -5135,7 +5162,7 @@
         <v>23</v>
       </c>
       <c r="J63" s="1">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="K63" t="s">
         <v>59</v>
@@ -5156,7 +5183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>234</v>
       </c>
@@ -5185,7 +5212,7 @@
         <v>23</v>
       </c>
       <c r="J64" s="1">
-        <v>489.0</v>
+        <v>489</v>
       </c>
       <c r="K64" t="s">
         <v>59</v>
@@ -5206,7 +5233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>234</v>
       </c>
@@ -5235,7 +5262,7 @@
         <v>23</v>
       </c>
       <c r="J65" s="1">
-        <v>518.0</v>
+        <v>518</v>
       </c>
       <c r="K65" t="s">
         <v>59</v>
@@ -5256,7 +5283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>243</v>
       </c>
@@ -5306,7 +5333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>243</v>
       </c>
@@ -5335,7 +5362,7 @@
         <v>23</v>
       </c>
       <c r="J67" s="1">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="K67" t="s">
         <v>59</v>
@@ -5356,7 +5383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>243</v>
       </c>
@@ -5385,7 +5412,7 @@
         <v>23</v>
       </c>
       <c r="J68" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K68" t="s">
         <v>59</v>
@@ -5406,7 +5433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>243</v>
       </c>
@@ -5435,7 +5462,7 @@
         <v>23</v>
       </c>
       <c r="J69" s="1">
-        <v>729.0</v>
+        <v>729</v>
       </c>
       <c r="K69" t="s">
         <v>59</v>
@@ -5456,7 +5483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>247</v>
       </c>
@@ -5506,7 +5533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>250</v>
       </c>
@@ -5556,7 +5583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>250</v>
       </c>
@@ -5585,7 +5612,7 @@
         <v>23</v>
       </c>
       <c r="J72" s="1">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="K72" t="s">
         <v>59</v>
@@ -5606,7 +5633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>250</v>
       </c>
@@ -5635,7 +5662,7 @@
         <v>23</v>
       </c>
       <c r="J73" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K73" t="s">
         <v>59</v>
@@ -5656,7 +5683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>250</v>
       </c>
@@ -5685,7 +5712,7 @@
         <v>23</v>
       </c>
       <c r="J74" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="K74" t="s">
         <v>59</v>
@@ -5706,7 +5733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>250</v>
       </c>
@@ -5735,7 +5762,7 @@
         <v>23</v>
       </c>
       <c r="J75" s="1">
-        <v>729.0</v>
+        <v>729</v>
       </c>
       <c r="K75" t="s">
         <v>59</v>
@@ -5756,7 +5783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>256</v>
       </c>
@@ -5806,7 +5833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>261</v>
       </c>
@@ -5856,7 +5883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>264</v>
       </c>
@@ -5906,7 +5933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>264</v>
       </c>
@@ -5935,7 +5962,7 @@
         <v>23</v>
       </c>
       <c r="J79" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="K79" t="s">
         <v>24</v>
@@ -5956,7 +5983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>264</v>
       </c>
@@ -6006,7 +6033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>271</v>
       </c>
@@ -6056,7 +6083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>275</v>
       </c>
@@ -6106,7 +6133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>278</v>
       </c>
@@ -6156,7 +6183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>278</v>
       </c>
@@ -6185,7 +6212,7 @@
         <v>23</v>
       </c>
       <c r="J84" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="K84" t="s">
         <v>24</v>
@@ -6206,7 +6233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>278</v>
       </c>
@@ -6256,7 +6283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>285</v>
       </c>
@@ -6306,7 +6333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>285</v>
       </c>
@@ -6356,7 +6383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>285</v>
       </c>
@@ -6385,7 +6412,7 @@
         <v>23</v>
       </c>
       <c r="J88" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="K88" t="s">
         <v>24</v>
@@ -6406,7 +6433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>290</v>
       </c>
@@ -6435,7 +6462,7 @@
         <v>23</v>
       </c>
       <c r="J89" s="1">
-        <v>73.1</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="K89" t="s">
         <v>24</v>
@@ -6456,7 +6483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>290</v>
       </c>
@@ -6485,7 +6512,7 @@
         <v>23</v>
       </c>
       <c r="J90" s="1">
-        <v>2137.0</v>
+        <v>2137</v>
       </c>
       <c r="K90" t="s">
         <v>59</v>
@@ -6506,7 +6533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>290</v>
       </c>
@@ -6535,7 +6562,7 @@
         <v>23</v>
       </c>
       <c r="J91" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K91" t="s">
         <v>59</v>
@@ -6556,7 +6583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>290</v>
       </c>
@@ -6585,7 +6612,7 @@
         <v>23</v>
       </c>
       <c r="J92" s="1">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="K92" t="s">
         <v>59</v>
@@ -6606,7 +6633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>301</v>
       </c>
@@ -6635,7 +6662,7 @@
         <v>23</v>
       </c>
       <c r="J93" s="1">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="K93" t="s">
         <v>59</v>
@@ -6656,7 +6683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>301</v>
       </c>
@@ -6685,7 +6712,7 @@
         <v>23</v>
       </c>
       <c r="J94" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="K94" t="s">
         <v>59</v>
@@ -6706,7 +6733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>301</v>
       </c>
@@ -6735,7 +6762,7 @@
         <v>23</v>
       </c>
       <c r="J95" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="K95" t="s">
         <v>176</v>
@@ -6756,7 +6783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>301</v>
       </c>
@@ -6785,7 +6812,7 @@
         <v>23</v>
       </c>
       <c r="J96" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="K96" t="s">
         <v>59</v>
@@ -6806,7 +6833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>312</v>
       </c>
@@ -6856,7 +6883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>317</v>
       </c>
@@ -6906,7 +6933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>317</v>
       </c>
@@ -6935,7 +6962,7 @@
         <v>23</v>
       </c>
       <c r="J99" s="1">
-        <v>414.0</v>
+        <v>414</v>
       </c>
       <c r="K99" t="s">
         <v>59</v>
@@ -6956,7 +6983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>317</v>
       </c>
@@ -6985,7 +7012,7 @@
         <v>23</v>
       </c>
       <c r="J100" s="1">
-        <v>314.0</v>
+        <v>314</v>
       </c>
       <c r="K100" t="s">
         <v>59</v>
@@ -7006,7 +7033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>317</v>
       </c>
@@ -7035,7 +7062,7 @@
         <v>23</v>
       </c>
       <c r="J101" s="1">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="K101" t="s">
         <v>59</v>
@@ -7056,7 +7083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>317</v>
       </c>
@@ -7085,7 +7112,7 @@
         <v>23</v>
       </c>
       <c r="J102" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K102" t="s">
         <v>59</v>
@@ -7106,7 +7133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>317</v>
       </c>
@@ -7135,7 +7162,7 @@
         <v>23</v>
       </c>
       <c r="J103" s="1">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="K103" t="s">
         <v>59</v>
@@ -7156,7 +7183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>317</v>
       </c>
@@ -7185,7 +7212,7 @@
         <v>23</v>
       </c>
       <c r="J104" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="K104" t="s">
         <v>59</v>
@@ -7206,7 +7233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>317</v>
       </c>
@@ -7235,7 +7262,7 @@
         <v>23</v>
       </c>
       <c r="J105" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="K105" t="s">
         <v>59</v>
@@ -7256,7 +7283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>317</v>
       </c>
@@ -7285,7 +7312,7 @@
         <v>23</v>
       </c>
       <c r="J106" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K106" t="s">
         <v>59</v>
@@ -7306,7 +7333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>317</v>
       </c>
@@ -7335,7 +7362,7 @@
         <v>23</v>
       </c>
       <c r="J107" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K107" t="s">
         <v>59</v>
@@ -7356,7 +7383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>317</v>
       </c>
@@ -7385,7 +7412,7 @@
         <v>23</v>
       </c>
       <c r="J108" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="K108" t="s">
         <v>59</v>
@@ -7406,7 +7433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>317</v>
       </c>
@@ -7435,7 +7462,7 @@
         <v>23</v>
       </c>
       <c r="J109" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="K109" t="s">
         <v>59</v>
@@ -7456,7 +7483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>317</v>
       </c>
@@ -7485,7 +7512,7 @@
         <v>23</v>
       </c>
       <c r="J110" s="1">
-        <v>3798.0</v>
+        <v>3798</v>
       </c>
       <c r="K110" t="s">
         <v>59</v>
@@ -7506,7 +7533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>317</v>
       </c>
@@ -7535,7 +7562,7 @@
         <v>23</v>
       </c>
       <c r="J111" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="K111" t="s">
         <v>59</v>
@@ -7556,7 +7583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>317</v>
       </c>
@@ -7585,7 +7612,7 @@
         <v>23</v>
       </c>
       <c r="J112" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="K112" t="s">
         <v>59</v>
@@ -7606,7 +7633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>317</v>
       </c>
@@ -7635,7 +7662,7 @@
         <v>23</v>
       </c>
       <c r="J113" s="1">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="K113" t="s">
         <v>59</v>
@@ -7656,7 +7683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>317</v>
       </c>
@@ -7685,7 +7712,7 @@
         <v>23</v>
       </c>
       <c r="J114" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="K114" t="s">
         <v>59</v>
@@ -7706,7 +7733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>317</v>
       </c>
@@ -7735,7 +7762,7 @@
         <v>23</v>
       </c>
       <c r="J115" s="1">
-        <v>409.0</v>
+        <v>409</v>
       </c>
       <c r="K115" t="s">
         <v>59</v>
@@ -7756,7 +7783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>317</v>
       </c>
@@ -7785,7 +7812,7 @@
         <v>23</v>
       </c>
       <c r="J116" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="K116" t="s">
         <v>59</v>
@@ -7806,7 +7833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>317</v>
       </c>
@@ -7835,7 +7862,7 @@
         <v>23</v>
       </c>
       <c r="J117" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K117" t="s">
         <v>59</v>
@@ -7856,7 +7883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>317</v>
       </c>
@@ -7885,7 +7912,7 @@
         <v>23</v>
       </c>
       <c r="J118" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K118" t="s">
         <v>59</v>
@@ -7906,7 +7933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>317</v>
       </c>
@@ -7935,7 +7962,7 @@
         <v>23</v>
       </c>
       <c r="J119" s="1">
-        <v>387.0</v>
+        <v>387</v>
       </c>
       <c r="K119" t="s">
         <v>59</v>
@@ -7956,7 +7983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>317</v>
       </c>
@@ -7985,7 +8012,7 @@
         <v>23</v>
       </c>
       <c r="J120" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="K120" t="s">
         <v>59</v>
@@ -8006,7 +8033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>317</v>
       </c>
@@ -8035,7 +8062,7 @@
         <v>23</v>
       </c>
       <c r="J121" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K121" t="s">
         <v>59</v>
@@ -8056,7 +8083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>317</v>
       </c>
@@ -8085,7 +8112,7 @@
         <v>23</v>
       </c>
       <c r="J122" s="1">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="K122" t="s">
         <v>59</v>
@@ -8106,7 +8133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>371</v>
       </c>
@@ -8135,7 +8162,7 @@
         <v>23</v>
       </c>
       <c r="J123" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="K123" t="s">
         <v>24</v>
@@ -8156,7 +8183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>376</v>
       </c>
@@ -8185,7 +8212,7 @@
         <v>23</v>
       </c>
       <c r="J124" s="1">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="K124" t="s">
         <v>59</v>
@@ -8206,7 +8233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>376</v>
       </c>
@@ -8235,7 +8262,7 @@
         <v>23</v>
       </c>
       <c r="J125" s="1">
-        <v>1433.0</v>
+        <v>1433</v>
       </c>
       <c r="K125" t="s">
         <v>59</v>
@@ -8256,7 +8283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>376</v>
       </c>
@@ -8285,7 +8312,7 @@
         <v>23</v>
       </c>
       <c r="J126" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="K126" t="s">
         <v>59</v>
@@ -8306,7 +8333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>388</v>
       </c>
@@ -8356,7 +8383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>388</v>
       </c>
@@ -8385,7 +8412,7 @@
         <v>23</v>
       </c>
       <c r="J128" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="K128" t="s">
         <v>24</v>
@@ -8406,7 +8433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>394</v>
       </c>
@@ -8456,7 +8483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>394</v>
       </c>
@@ -8485,7 +8512,7 @@
         <v>23</v>
       </c>
       <c r="J130" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="K130" t="s">
         <v>24</v>
@@ -8506,7 +8533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>399</v>
       </c>
@@ -8556,7 +8583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>404</v>
       </c>
@@ -8606,7 +8633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>404</v>
       </c>
@@ -8656,7 +8683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>408</v>
       </c>
@@ -8685,7 +8712,7 @@
         <v>23</v>
       </c>
       <c r="J134" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="K134" t="s">
         <v>24</v>
@@ -8706,7 +8733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>408</v>
       </c>
@@ -8735,7 +8762,7 @@
         <v>23</v>
       </c>
       <c r="J135" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K135" t="s">
         <v>59</v>
@@ -8756,7 +8783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>408</v>
       </c>
@@ -8785,7 +8812,7 @@
         <v>23</v>
       </c>
       <c r="J136" s="1">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="K136" t="s">
         <v>59</v>
@@ -8806,7 +8833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>408</v>
       </c>
@@ -8835,7 +8862,7 @@
         <v>23</v>
       </c>
       <c r="J137" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K137" t="s">
         <v>59</v>
@@ -8856,7 +8883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>408</v>
       </c>
@@ -8885,7 +8912,7 @@
         <v>23</v>
       </c>
       <c r="J138" s="1">
-        <v>729.0</v>
+        <v>729</v>
       </c>
       <c r="K138" t="s">
         <v>59</v>
@@ -8906,7 +8933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>414</v>
       </c>
@@ -8956,7 +8983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>417</v>
       </c>
@@ -9006,7 +9033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>417</v>
       </c>
@@ -9056,7 +9083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>420</v>
       </c>
@@ -9106,7 +9133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>423</v>
       </c>
@@ -9135,7 +9162,7 @@
         <v>428</v>
       </c>
       <c r="J143" s="1">
-        <v>438.0</v>
+        <v>438</v>
       </c>
       <c r="K143" t="s">
         <v>176</v>
@@ -9156,7 +9183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>423</v>
       </c>
@@ -9185,7 +9212,7 @@
         <v>428</v>
       </c>
       <c r="J144" s="1">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="K144" t="s">
         <v>59</v>
@@ -9206,7 +9233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>423</v>
       </c>
@@ -9235,7 +9262,7 @@
         <v>428</v>
       </c>
       <c r="J145" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="K145" t="s">
         <v>59</v>
@@ -9256,7 +9283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>434</v>
       </c>
@@ -9306,7 +9333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>437</v>
       </c>
@@ -9356,7 +9383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>440</v>
       </c>
@@ -9385,7 +9412,7 @@
         <v>23</v>
       </c>
       <c r="J148" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="K148" t="s">
         <v>24</v>
@@ -9406,7 +9433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>445</v>
       </c>
@@ -9456,7 +9483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>448</v>
       </c>
@@ -9506,7 +9533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>451</v>
       </c>
@@ -9556,7 +9583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>455</v>
       </c>
@@ -9606,7 +9633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>459</v>
       </c>
@@ -9635,7 +9662,7 @@
         <v>23</v>
       </c>
       <c r="J153" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="K153" t="s">
         <v>59</v>
@@ -9656,7 +9683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>464</v>
       </c>
@@ -9706,7 +9733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>464</v>
       </c>
@@ -9735,7 +9762,7 @@
         <v>23</v>
       </c>
       <c r="J155" s="1">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="K155" t="s">
         <v>59</v>
@@ -9756,7 +9783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>471</v>
       </c>
@@ -9806,7 +9833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>471</v>
       </c>
@@ -9835,7 +9862,7 @@
         <v>23</v>
       </c>
       <c r="J157" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="K157" t="s">
         <v>24</v>
@@ -9856,7 +9883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>478</v>
       </c>
@@ -9885,7 +9912,7 @@
         <v>23</v>
       </c>
       <c r="J158" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="K158" t="s">
         <v>24</v>
@@ -9906,7 +9933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>483</v>
       </c>
@@ -9935,7 +9962,7 @@
         <v>23</v>
       </c>
       <c r="J159" s="1">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="K159" t="s">
         <v>24</v>
@@ -9956,7 +9983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>487</v>
       </c>
@@ -10006,7 +10033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>491</v>
       </c>
@@ -10056,7 +10083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>495</v>
       </c>
@@ -10106,7 +10133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>499</v>
       </c>
@@ -10156,7 +10183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>502</v>
       </c>
@@ -10206,7 +10233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>505</v>
       </c>
@@ -10256,7 +10283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>510</v>
       </c>
@@ -10306,7 +10333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>514</v>
       </c>
@@ -10356,7 +10383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>518</v>
       </c>
@@ -10385,7 +10412,7 @@
         <v>23</v>
       </c>
       <c r="J168" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="K168" t="s">
         <v>24</v>
@@ -10406,7 +10433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>523</v>
       </c>
@@ -10435,7 +10462,7 @@
         <v>23</v>
       </c>
       <c r="J169" s="1">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="K169" t="s">
         <v>59</v>
@@ -10456,7 +10483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>528</v>
       </c>
@@ -10506,7 +10533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>533</v>
       </c>
@@ -10556,7 +10583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>533</v>
       </c>
@@ -10606,7 +10633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>537</v>
       </c>
@@ -10635,7 +10662,7 @@
         <v>23</v>
       </c>
       <c r="J173" s="1">
-        <v>81.6</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="K173" t="s">
         <v>24</v>
@@ -10656,7 +10683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>541</v>
       </c>
@@ -10706,7 +10733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>544</v>
       </c>
@@ -10756,7 +10783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>544</v>
       </c>
@@ -10785,7 +10812,7 @@
         <v>23</v>
       </c>
       <c r="J176" s="1">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="K176" t="s">
         <v>59</v>
@@ -10807,17 +10834,6 @@
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>